--- a/data/Isauro MolinosT3-2025.xlsx
+++ b/data/Isauro MolinosT3-2025.xlsx
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>88.23367443999945</v>
+        <v>98.03741603999944</v>
       </c>
     </row>
     <row r="15">
